--- a/xlsx/ibox实时价格.xlsx
+++ b/xlsx/ibox实时价格.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yz/myfile/test/puppteer/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yz/myfile/test/ibox/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC3AD3B-7578-3B4B-869D-B6C55278D004}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F7CD45D-FEB8-9C49-8622-AD44367BBA6A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33300" yWindow="460" windowWidth="33600" windowHeight="19980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="价格" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="375">
   <si>
     <t>藏品名字</t>
   </si>
@@ -1143,6 +1143,10 @@
   </si>
   <si>
     <t>4.2最低价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.2晚最低价格</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1527,10 +1531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H122"/>
+  <dimension ref="A1:I122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1538,9 +1542,10 @@
     <col min="1" max="1" width="19.6640625" customWidth="1"/>
     <col min="2" max="2" width="13.6640625" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1551,22 +1556,25 @@
         <v>373</v>
       </c>
       <c r="D1" t="s">
+        <v>374</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1577,22 +1585,25 @@
         <v>7288.88</v>
       </c>
       <c r="D2">
+        <v>6599</v>
+      </c>
+      <c r="E2">
         <v>200</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>9</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1603,22 +1614,25 @@
         <v>7499</v>
       </c>
       <c r="D3">
+        <v>6999</v>
+      </c>
+      <c r="E3">
         <v>200</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>7</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>8</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>9</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1629,22 +1643,25 @@
         <v>645</v>
       </c>
       <c r="D4">
+        <v>577.92999999999995</v>
+      </c>
+      <c r="E4">
         <v>2000</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>12</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>13</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>14</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1655,22 +1672,25 @@
         <v>7800</v>
       </c>
       <c r="D5">
+        <v>7100</v>
+      </c>
+      <c r="E5">
         <v>200</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>8</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>9</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -1681,22 +1701,25 @@
         <v>1459.4</v>
       </c>
       <c r="D6">
+        <v>1150</v>
+      </c>
+      <c r="E6">
         <v>888</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>19</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>20</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>21</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -1707,22 +1730,25 @@
         <v>1488</v>
       </c>
       <c r="D7">
+        <v>1150</v>
+      </c>
+      <c r="E7">
         <v>888</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>19</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>20</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>21</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1733,22 +1759,25 @@
         <v>5252</v>
       </c>
       <c r="D8">
+        <v>4400</v>
+      </c>
+      <c r="E8">
         <v>500</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>25</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>26</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>27</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -1759,22 +1788,25 @@
         <v>614</v>
       </c>
       <c r="D9">
+        <v>549.99</v>
+      </c>
+      <c r="E9">
         <v>3000</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>29</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>30</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>14</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -1785,22 +1817,25 @@
         <v>1197</v>
       </c>
       <c r="D10">
+        <v>1020</v>
+      </c>
+      <c r="E10">
         <v>1000</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>32</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>33</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>34</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -1811,22 +1846,25 @@
         <v>2398</v>
       </c>
       <c r="D11">
+        <v>2098</v>
+      </c>
+      <c r="E11">
         <v>500</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>36</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>33</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>34</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -1837,22 +1875,25 @@
         <v>395</v>
       </c>
       <c r="D12">
+        <v>382</v>
+      </c>
+      <c r="E12">
         <v>5355</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>39</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>40</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>41</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>43</v>
       </c>
@@ -1863,22 +1904,25 @@
         <v>6388</v>
       </c>
       <c r="D13">
+        <v>6300</v>
+      </c>
+      <c r="E13">
         <v>100</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>44</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>40</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>41</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -1889,22 +1933,25 @@
         <v>4600</v>
       </c>
       <c r="D14">
+        <v>4000</v>
+      </c>
+      <c r="E14">
         <v>300</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>47</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>48</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>49</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>51</v>
       </c>
@@ -1915,22 +1962,25 @@
         <v>4650</v>
       </c>
       <c r="D15">
+        <v>4400</v>
+      </c>
+      <c r="E15">
         <v>300</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>52</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>48</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>49</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>54</v>
       </c>
@@ -1941,22 +1991,25 @@
         <v>5252</v>
       </c>
       <c r="D16">
+        <v>4888</v>
+      </c>
+      <c r="E16">
         <v>100</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>54</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>55</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>56</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>58</v>
       </c>
@@ -1967,22 +2020,25 @@
         <v>5554</v>
       </c>
       <c r="D17">
+        <v>4500</v>
+      </c>
+      <c r="E17">
         <v>100</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>58</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>55</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>56</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>60</v>
       </c>
@@ -1993,22 +2049,25 @@
         <v>17188</v>
       </c>
       <c r="D18">
+        <v>15555</v>
+      </c>
+      <c r="E18">
         <v>333</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>61</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>62</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>63</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>65</v>
       </c>
@@ -2019,22 +2078,25 @@
         <v>15555</v>
       </c>
       <c r="D19">
+        <v>15000</v>
+      </c>
+      <c r="E19">
         <v>333</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>61</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>62</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>63</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
         <v>67</v>
       </c>
@@ -2045,22 +2107,25 @@
         <v>18220</v>
       </c>
       <c r="D20">
+        <v>17888</v>
+      </c>
+      <c r="E20">
         <v>333</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>61</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>62</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>63</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>69</v>
       </c>
@@ -2071,22 +2136,25 @@
         <v>638</v>
       </c>
       <c r="D21">
+        <v>585</v>
+      </c>
+      <c r="E21">
         <v>3000</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>70</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>71</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>72</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
         <v>74</v>
       </c>
@@ -2097,22 +2165,25 @@
         <v>648</v>
       </c>
       <c r="D22">
+        <v>526</v>
+      </c>
+      <c r="E22">
         <v>3000</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>70</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>71</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>72</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
         <v>76</v>
       </c>
@@ -2123,22 +2194,25 @@
         <v>731.99</v>
       </c>
       <c r="D23">
+        <v>627</v>
+      </c>
+      <c r="E23">
         <v>3000</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>70</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>71</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>72</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
         <v>78</v>
       </c>
@@ -2149,22 +2223,25 @@
         <v>659.55</v>
       </c>
       <c r="D24">
+        <v>638</v>
+      </c>
+      <c r="E24">
         <v>3000</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>70</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>71</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>72</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
         <v>80</v>
       </c>
@@ -2175,22 +2252,25 @@
         <v>580</v>
       </c>
       <c r="D25">
+        <v>558</v>
+      </c>
+      <c r="E25">
         <v>3000</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>70</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>71</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>72</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
         <v>82</v>
       </c>
@@ -2201,22 +2281,25 @@
         <v>706</v>
       </c>
       <c r="D26">
+        <v>596</v>
+      </c>
+      <c r="E26">
         <v>3000</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>70</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>71</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>72</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
         <v>84</v>
       </c>
@@ -2227,22 +2310,25 @@
         <v>787</v>
       </c>
       <c r="D27">
+        <v>681</v>
+      </c>
+      <c r="E27">
         <v>3000</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>70</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>71</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>72</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
         <v>86</v>
       </c>
@@ -2253,22 +2339,25 @@
         <v>1088</v>
       </c>
       <c r="D28">
+        <v>1310</v>
+      </c>
+      <c r="E28">
         <v>3000</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>70</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>71</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>72</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
         <v>88</v>
       </c>
@@ -2279,22 +2368,25 @@
         <v>988</v>
       </c>
       <c r="D29">
+        <v>950</v>
+      </c>
+      <c r="E29">
         <v>3000</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>70</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>71</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>72</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
         <v>90</v>
       </c>
@@ -2305,22 +2397,25 @@
         <v>1486</v>
       </c>
       <c r="D30">
+        <v>1399</v>
+      </c>
+      <c r="E30">
         <v>3000</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>70</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>71</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>72</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
         <v>92</v>
       </c>
@@ -2331,22 +2426,25 @@
         <v>880</v>
       </c>
       <c r="D31">
+        <v>860</v>
+      </c>
+      <c r="E31">
         <v>3000</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>70</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>71</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>72</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
         <v>94</v>
       </c>
@@ -2357,22 +2455,25 @@
         <v>619</v>
       </c>
       <c r="D32">
+        <v>538</v>
+      </c>
+      <c r="E32">
         <v>3000</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>70</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>71</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>72</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
         <v>96</v>
       </c>
@@ -2383,22 +2484,25 @@
         <v>4599</v>
       </c>
       <c r="D33">
+        <v>3800</v>
+      </c>
+      <c r="E33">
         <v>100</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>97</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>98</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>99</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
         <v>101</v>
       </c>
@@ -2409,22 +2513,25 @@
         <v>3800</v>
       </c>
       <c r="D34">
+        <v>3766</v>
+      </c>
+      <c r="E34">
         <v>100</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>97</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>98</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>99</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
         <v>103</v>
       </c>
@@ -2435,22 +2542,25 @@
         <v>5100</v>
       </c>
       <c r="D35">
+        <v>4444</v>
+      </c>
+      <c r="E35">
         <v>100</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>104</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>105</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>106</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:9">
       <c r="A36" t="s">
         <v>108</v>
       </c>
@@ -2461,22 +2571,25 @@
         <v>7888</v>
       </c>
       <c r="D36">
+        <v>6999</v>
+      </c>
+      <c r="E36">
         <v>50</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>109</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>110</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>106</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:9">
       <c r="A37" t="s">
         <v>112</v>
       </c>
@@ -2487,22 +2600,25 @@
         <v>9999</v>
       </c>
       <c r="D37">
+        <v>9999</v>
+      </c>
+      <c r="E37">
         <v>33</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>113</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>114</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>115</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:9">
       <c r="A38" t="s">
         <v>117</v>
       </c>
@@ -2513,22 +2629,25 @@
         <v>8000</v>
       </c>
       <c r="D38">
+        <v>7200</v>
+      </c>
+      <c r="E38">
         <v>50</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>109</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>110</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>106</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:9">
       <c r="A39" t="s">
         <v>119</v>
       </c>
@@ -2539,22 +2658,25 @@
         <v>3666</v>
       </c>
       <c r="D39">
+        <v>3888.88</v>
+      </c>
+      <c r="E39">
         <v>100</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>120</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>121</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>122</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:9">
       <c r="A40" t="s">
         <v>124</v>
       </c>
@@ -2565,22 +2687,25 @@
         <v>5800</v>
       </c>
       <c r="D40">
+        <v>4800</v>
+      </c>
+      <c r="E40">
         <v>100</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>125</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>126</v>
       </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>127</v>
       </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:9">
       <c r="A41" t="s">
         <v>129</v>
       </c>
@@ -2591,22 +2716,25 @@
         <v>5180</v>
       </c>
       <c r="D41">
+        <v>4666</v>
+      </c>
+      <c r="E41">
         <v>100</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>130</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>131</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>132</v>
       </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:9">
       <c r="A42" t="s">
         <v>134</v>
       </c>
@@ -2617,22 +2745,25 @@
         <v>2499</v>
       </c>
       <c r="D42">
+        <v>2168</v>
+      </c>
+      <c r="E42">
         <v>199</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>135</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>136</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>137</v>
       </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:9">
       <c r="A43" t="s">
         <v>139</v>
       </c>
@@ -2643,22 +2774,25 @@
         <v>2300</v>
       </c>
       <c r="D43">
+        <v>1999</v>
+      </c>
+      <c r="E43">
         <v>199</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>140</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>141</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>142</v>
       </c>
-      <c r="H43" t="s">
+      <c r="I43" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:9">
       <c r="A44" t="s">
         <v>144</v>
       </c>
@@ -2669,22 +2803,25 @@
         <v>2390</v>
       </c>
       <c r="D44">
+        <v>1999</v>
+      </c>
+      <c r="E44">
         <v>199</v>
-      </c>
-      <c r="E44" t="s">
-        <v>145</v>
       </c>
       <c r="F44" t="s">
         <v>145</v>
       </c>
       <c r="G44" t="s">
+        <v>145</v>
+      </c>
+      <c r="H44" t="s">
         <v>137</v>
       </c>
-      <c r="H44" t="s">
+      <c r="I44" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:9">
       <c r="A45" t="s">
         <v>147</v>
       </c>
@@ -2695,22 +2832,25 @@
         <v>2400</v>
       </c>
       <c r="D45">
+        <v>1978</v>
+      </c>
+      <c r="E45">
         <v>199</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>147</v>
       </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>148</v>
       </c>
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>142</v>
       </c>
-      <c r="H45" t="s">
+      <c r="I45" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:9">
       <c r="A46" t="s">
         <v>150</v>
       </c>
@@ -2721,22 +2861,25 @@
         <v>2295</v>
       </c>
       <c r="D46">
+        <v>1688</v>
+      </c>
+      <c r="E46">
         <v>199</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>151</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>152</v>
       </c>
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>142</v>
       </c>
-      <c r="H46" t="s">
+      <c r="I46" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:9">
       <c r="A47" t="s">
         <v>154</v>
       </c>
@@ -2747,22 +2890,25 @@
         <v>2300</v>
       </c>
       <c r="D47">
+        <v>1798</v>
+      </c>
+      <c r="E47">
         <v>199</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>155</v>
       </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>156</v>
       </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>157</v>
       </c>
-      <c r="H47" t="s">
+      <c r="I47" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:9">
       <c r="A48" t="s">
         <v>159</v>
       </c>
@@ -2773,22 +2919,25 @@
         <v>2388</v>
       </c>
       <c r="D48">
+        <v>1950</v>
+      </c>
+      <c r="E48">
         <v>199</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>104</v>
       </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>105</v>
       </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>106</v>
       </c>
-      <c r="H48" t="s">
+      <c r="I48" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:9">
       <c r="A49" t="s">
         <v>161</v>
       </c>
@@ -2799,22 +2948,25 @@
         <v>2300</v>
       </c>
       <c r="D49">
+        <v>2050</v>
+      </c>
+      <c r="E49">
         <v>199</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>104</v>
       </c>
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>105</v>
       </c>
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>106</v>
       </c>
-      <c r="H49" t="s">
+      <c r="I49" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:9">
       <c r="A50" t="s">
         <v>163</v>
       </c>
@@ -2825,22 +2977,25 @@
         <v>2455</v>
       </c>
       <c r="D50">
+        <v>1950</v>
+      </c>
+      <c r="E50">
         <v>199</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>164</v>
       </c>
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>165</v>
       </c>
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>142</v>
       </c>
-      <c r="H50" t="s">
+      <c r="I50" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:9">
       <c r="A51" t="s">
         <v>167</v>
       </c>
@@ -2851,22 +3006,25 @@
         <v>2599</v>
       </c>
       <c r="D51">
+        <v>1900</v>
+      </c>
+      <c r="E51">
         <v>199</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>168</v>
       </c>
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>169</v>
       </c>
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>142</v>
       </c>
-      <c r="H51" t="s">
+      <c r="I51" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:9">
       <c r="A52" t="s">
         <v>171</v>
       </c>
@@ -2877,22 +3035,25 @@
         <v>2199</v>
       </c>
       <c r="D52">
+        <v>2188</v>
+      </c>
+      <c r="E52">
         <v>199</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>172</v>
       </c>
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>110</v>
       </c>
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>106</v>
       </c>
-      <c r="H52" t="s">
+      <c r="I52" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:9">
       <c r="A53" t="s">
         <v>174</v>
       </c>
@@ -2903,22 +3064,25 @@
         <v>2388</v>
       </c>
       <c r="D53">
+        <v>2000</v>
+      </c>
+      <c r="E53">
         <v>199</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>172</v>
       </c>
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>110</v>
       </c>
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>106</v>
       </c>
-      <c r="H53" t="s">
+      <c r="I53" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:9">
       <c r="A54" t="s">
         <v>176</v>
       </c>
@@ -2929,22 +3093,25 @@
         <v>3388</v>
       </c>
       <c r="D54">
+        <v>2800</v>
+      </c>
+      <c r="E54">
         <v>200</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>177</v>
       </c>
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>178</v>
       </c>
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>179</v>
       </c>
-      <c r="H54" t="s">
+      <c r="I54" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:9">
       <c r="A55" t="s">
         <v>181</v>
       </c>
@@ -2955,22 +3122,25 @@
         <v>3118</v>
       </c>
       <c r="D55">
+        <v>3059</v>
+      </c>
+      <c r="E55">
         <v>200</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>182</v>
       </c>
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>136</v>
       </c>
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>137</v>
       </c>
-      <c r="H55" t="s">
+      <c r="I55" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:9">
       <c r="A56" t="s">
         <v>184</v>
       </c>
@@ -2981,22 +3151,25 @@
         <v>4250</v>
       </c>
       <c r="D56">
+        <v>4333</v>
+      </c>
+      <c r="E56">
         <v>100</v>
-      </c>
-      <c r="E56" t="s">
-        <v>145</v>
       </c>
       <c r="F56" t="s">
         <v>145</v>
       </c>
       <c r="G56" t="s">
+        <v>145</v>
+      </c>
+      <c r="H56" t="s">
         <v>137</v>
       </c>
-      <c r="H56" t="s">
+      <c r="I56" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:9">
       <c r="A57" t="s">
         <v>186</v>
       </c>
@@ -3007,22 +3180,25 @@
         <v>5088</v>
       </c>
       <c r="D57">
+        <v>5188</v>
+      </c>
+      <c r="E57">
         <v>100</v>
       </c>
-      <c r="E57" t="s">
+      <c r="F57" t="s">
         <v>187</v>
       </c>
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>126</v>
       </c>
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>127</v>
       </c>
-      <c r="H57" t="s">
+      <c r="I57" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:9">
       <c r="A58" t="s">
         <v>189</v>
       </c>
@@ -3033,22 +3209,25 @@
         <v>36666</v>
       </c>
       <c r="D58">
+        <v>38880</v>
+      </c>
+      <c r="E58">
         <v>10</v>
       </c>
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>190</v>
       </c>
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>191</v>
       </c>
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>192</v>
       </c>
-      <c r="H58" t="s">
+      <c r="I58" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:9">
       <c r="A59" t="s">
         <v>194</v>
       </c>
@@ -3059,22 +3238,25 @@
         <v>35888</v>
       </c>
       <c r="D59">
+        <v>32999</v>
+      </c>
+      <c r="E59">
         <v>10</v>
       </c>
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>190</v>
       </c>
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>191</v>
       </c>
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>192</v>
       </c>
-      <c r="H59" t="s">
+      <c r="I59" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:9">
       <c r="A60" t="s">
         <v>196</v>
       </c>
@@ -3085,22 +3267,25 @@
         <v>40888</v>
       </c>
       <c r="D60">
+        <v>40888</v>
+      </c>
+      <c r="E60">
         <v>10</v>
       </c>
-      <c r="E60" t="s">
+      <c r="F60" t="s">
         <v>190</v>
       </c>
-      <c r="F60" t="s">
+      <c r="G60" t="s">
         <v>191</v>
       </c>
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>192</v>
       </c>
-      <c r="H60" t="s">
+      <c r="I60" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:9">
       <c r="A61" t="s">
         <v>198</v>
       </c>
@@ -3111,22 +3296,25 @@
         <v>3040</v>
       </c>
       <c r="D61">
+        <v>2700</v>
+      </c>
+      <c r="E61">
         <v>2000</v>
       </c>
-      <c r="E61" t="s">
+      <c r="F61" t="s">
         <v>198</v>
       </c>
-      <c r="F61" t="s">
+      <c r="G61" t="s">
         <v>199</v>
       </c>
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>200</v>
       </c>
-      <c r="H61" t="s">
+      <c r="I61" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:9">
       <c r="A62" t="s">
         <v>202</v>
       </c>
@@ -3137,22 +3325,25 @@
         <v>2700</v>
       </c>
       <c r="D62">
+        <v>2480</v>
+      </c>
+      <c r="E62">
         <v>2000</v>
       </c>
-      <c r="E62" t="s">
+      <c r="F62" t="s">
         <v>202</v>
       </c>
-      <c r="F62" t="s">
+      <c r="G62" t="s">
         <v>199</v>
       </c>
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>200</v>
       </c>
-      <c r="H62" t="s">
+      <c r="I62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:9">
       <c r="A63" t="s">
         <v>204</v>
       </c>
@@ -3163,22 +3354,25 @@
         <v>2700</v>
       </c>
       <c r="D63">
+        <v>2419</v>
+      </c>
+      <c r="E63">
         <v>2000</v>
       </c>
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>204</v>
       </c>
-      <c r="F63" t="s">
+      <c r="G63" t="s">
         <v>199</v>
       </c>
-      <c r="G63" t="s">
+      <c r="H63" t="s">
         <v>200</v>
       </c>
-      <c r="H63" t="s">
+      <c r="I63" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:9">
       <c r="A64" t="s">
         <v>206</v>
       </c>
@@ -3189,22 +3383,25 @@
         <v>2900</v>
       </c>
       <c r="D64">
+        <v>2388</v>
+      </c>
+      <c r="E64">
         <v>2000</v>
       </c>
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>206</v>
       </c>
-      <c r="F64" t="s">
+      <c r="G64" t="s">
         <v>199</v>
       </c>
-      <c r="G64" t="s">
+      <c r="H64" t="s">
         <v>200</v>
       </c>
-      <c r="H64" t="s">
+      <c r="I64" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:9">
       <c r="A65" t="s">
         <v>208</v>
       </c>
@@ -3215,22 +3412,25 @@
         <v>5598</v>
       </c>
       <c r="D65">
+        <v>4998</v>
+      </c>
+      <c r="E65">
         <v>100</v>
       </c>
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>209</v>
       </c>
-      <c r="F65" t="s">
+      <c r="G65" t="s">
         <v>210</v>
       </c>
-      <c r="G65" t="s">
+      <c r="H65" t="s">
         <v>122</v>
       </c>
-      <c r="H65" t="s">
+      <c r="I65" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:9">
       <c r="A66" t="s">
         <v>208</v>
       </c>
@@ -3241,22 +3441,25 @@
         <v>5250</v>
       </c>
       <c r="D66">
+        <v>4869</v>
+      </c>
+      <c r="E66">
         <v>100</v>
       </c>
-      <c r="E66" t="s">
+      <c r="F66" t="s">
         <v>209</v>
       </c>
-      <c r="F66" t="s">
+      <c r="G66" t="s">
         <v>210</v>
       </c>
-      <c r="G66" t="s">
+      <c r="H66" t="s">
         <v>122</v>
       </c>
-      <c r="H66" t="s">
+      <c r="I66" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:9">
       <c r="A67" t="s">
         <v>213</v>
       </c>
@@ -3267,22 +3470,25 @@
         <v>4990</v>
       </c>
       <c r="D67">
+        <v>4200</v>
+      </c>
+      <c r="E67">
         <v>100</v>
       </c>
-      <c r="E67" t="s">
+      <c r="F67" t="s">
         <v>213</v>
       </c>
-      <c r="F67" t="s">
+      <c r="G67" t="s">
         <v>214</v>
       </c>
-      <c r="G67" t="s">
+      <c r="H67" t="s">
         <v>215</v>
       </c>
-      <c r="H67" t="s">
+      <c r="I67" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:9">
       <c r="A68" t="s">
         <v>217</v>
       </c>
@@ -3293,22 +3499,25 @@
         <v>5000</v>
       </c>
       <c r="D68">
+        <v>4296</v>
+      </c>
+      <c r="E68">
         <v>100</v>
       </c>
-      <c r="E68" t="s">
+      <c r="F68" t="s">
         <v>217</v>
       </c>
-      <c r="F68" t="s">
+      <c r="G68" t="s">
         <v>214</v>
       </c>
-      <c r="G68" t="s">
+      <c r="H68" t="s">
         <v>215</v>
       </c>
-      <c r="H68" t="s">
+      <c r="I68" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:9">
       <c r="A69" t="s">
         <v>219</v>
       </c>
@@ -3319,22 +3528,25 @@
         <v>5800</v>
       </c>
       <c r="D69">
+        <v>5000</v>
+      </c>
+      <c r="E69">
         <v>100</v>
       </c>
-      <c r="E69" t="s">
+      <c r="F69" t="s">
         <v>220</v>
       </c>
-      <c r="F69" t="s">
+      <c r="G69" t="s">
         <v>221</v>
       </c>
-      <c r="G69" t="s">
+      <c r="H69" t="s">
         <v>132</v>
       </c>
-      <c r="H69" t="s">
+      <c r="I69" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:9">
       <c r="A70" t="s">
         <v>223</v>
       </c>
@@ -3345,22 +3557,25 @@
         <v>4800</v>
       </c>
       <c r="D70">
+        <v>4999</v>
+      </c>
+      <c r="E70">
         <v>100</v>
       </c>
-      <c r="E70" t="s">
+      <c r="F70" t="s">
         <v>220</v>
       </c>
-      <c r="F70" t="s">
+      <c r="G70" t="s">
         <v>221</v>
       </c>
-      <c r="G70" t="s">
+      <c r="H70" t="s">
         <v>132</v>
       </c>
-      <c r="H70" t="s">
+      <c r="I70" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:9">
       <c r="A71" t="s">
         <v>225</v>
       </c>
@@ -3371,22 +3586,25 @@
         <v>4800</v>
       </c>
       <c r="D71">
+        <v>4500</v>
+      </c>
+      <c r="E71">
         <v>100</v>
       </c>
-      <c r="E71" t="s">
+      <c r="F71" t="s">
         <v>220</v>
       </c>
-      <c r="F71" t="s">
+      <c r="G71" t="s">
         <v>221</v>
       </c>
-      <c r="G71" t="s">
+      <c r="H71" t="s">
         <v>132</v>
       </c>
-      <c r="H71" t="s">
+      <c r="I71" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:9">
       <c r="A72" t="s">
         <v>227</v>
       </c>
@@ -3397,22 +3615,25 @@
         <v>5666</v>
       </c>
       <c r="D72">
+        <v>5006</v>
+      </c>
+      <c r="E72">
         <v>100</v>
       </c>
-      <c r="E72" t="s">
+      <c r="F72" t="s">
         <v>227</v>
       </c>
-      <c r="F72" t="s">
+      <c r="G72" t="s">
         <v>228</v>
       </c>
-      <c r="G72" t="s">
+      <c r="H72" t="s">
         <v>56</v>
       </c>
-      <c r="H72" t="s">
+      <c r="I72" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:9">
       <c r="A73" t="s">
         <v>230</v>
       </c>
@@ -3423,22 +3644,25 @@
         <v>5466</v>
       </c>
       <c r="D73">
+        <v>4700</v>
+      </c>
+      <c r="E73">
         <v>100</v>
       </c>
-      <c r="E73" t="s">
+      <c r="F73" t="s">
         <v>230</v>
       </c>
-      <c r="F73" t="s">
+      <c r="G73" t="s">
         <v>228</v>
       </c>
-      <c r="G73" t="s">
+      <c r="H73" t="s">
         <v>56</v>
       </c>
-      <c r="H73" t="s">
+      <c r="I73" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:9">
       <c r="A74" t="s">
         <v>232</v>
       </c>
@@ -3449,22 +3673,25 @@
         <v>10666.6</v>
       </c>
       <c r="D74">
+        <v>9981</v>
+      </c>
+      <c r="E74">
         <v>35</v>
       </c>
-      <c r="E74" t="s">
+      <c r="F74" t="s">
         <v>232</v>
       </c>
-      <c r="F74" t="s">
+      <c r="G74" t="s">
         <v>233</v>
       </c>
-      <c r="G74" t="s">
+      <c r="H74" t="s">
         <v>234</v>
       </c>
-      <c r="H74" t="s">
+      <c r="I74" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:9">
       <c r="A75" t="s">
         <v>236</v>
       </c>
@@ -3475,22 +3702,25 @@
         <v>4888</v>
       </c>
       <c r="D75">
+        <v>4388</v>
+      </c>
+      <c r="E75">
         <v>100</v>
       </c>
-      <c r="E75" t="s">
+      <c r="F75" t="s">
         <v>236</v>
       </c>
-      <c r="F75" t="s">
+      <c r="G75" t="s">
         <v>237</v>
       </c>
-      <c r="G75" t="s">
+      <c r="H75" t="s">
         <v>132</v>
       </c>
-      <c r="H75" t="s">
+      <c r="I75" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:9">
       <c r="A76" t="s">
         <v>239</v>
       </c>
@@ -3501,22 +3731,25 @@
         <v>6555</v>
       </c>
       <c r="D76">
+        <v>6555</v>
+      </c>
+      <c r="E76">
         <v>100</v>
       </c>
-      <c r="E76" t="s">
+      <c r="F76" t="s">
         <v>239</v>
       </c>
-      <c r="F76" t="s">
+      <c r="G76" t="s">
         <v>240</v>
       </c>
-      <c r="G76" t="s">
+      <c r="H76" t="s">
         <v>56</v>
       </c>
-      <c r="H76" t="s">
+      <c r="I76" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:9">
       <c r="A77" t="s">
         <v>242</v>
       </c>
@@ -3527,22 +3760,25 @@
         <v>4900</v>
       </c>
       <c r="D77">
+        <v>4555</v>
+      </c>
+      <c r="E77">
         <v>100</v>
       </c>
-      <c r="E77" t="s">
+      <c r="F77" t="s">
         <v>242</v>
       </c>
-      <c r="F77" t="s">
+      <c r="G77" t="s">
         <v>237</v>
       </c>
-      <c r="G77" t="s">
+      <c r="H77" t="s">
         <v>132</v>
       </c>
-      <c r="H77" t="s">
+      <c r="I77" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:9">
       <c r="A78" t="s">
         <v>244</v>
       </c>
@@ -3553,22 +3789,25 @@
         <v>2700</v>
       </c>
       <c r="D78">
+        <v>2700</v>
+      </c>
+      <c r="E78">
         <v>888</v>
       </c>
-      <c r="E78" t="s">
+      <c r="F78" t="s">
         <v>245</v>
       </c>
-      <c r="F78" t="s">
+      <c r="G78" t="s">
         <v>246</v>
       </c>
-      <c r="G78" t="s">
+      <c r="H78" t="s">
         <v>247</v>
       </c>
-      <c r="H78" t="s">
+      <c r="I78" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:9">
       <c r="A79" t="s">
         <v>249</v>
       </c>
@@ -3579,22 +3818,25 @@
         <v>4888</v>
       </c>
       <c r="D79">
+        <v>4888</v>
+      </c>
+      <c r="E79">
         <v>80</v>
-      </c>
-      <c r="E79" t="s">
-        <v>250</v>
       </c>
       <c r="F79" t="s">
         <v>250</v>
       </c>
       <c r="G79" t="s">
+        <v>250</v>
+      </c>
+      <c r="H79" t="s">
         <v>251</v>
       </c>
-      <c r="H79" t="s">
+      <c r="I79" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:9">
       <c r="A80" t="s">
         <v>253</v>
       </c>
@@ -3605,22 +3847,25 @@
         <v>5100</v>
       </c>
       <c r="D80">
+        <v>4699</v>
+      </c>
+      <c r="E80">
         <v>80</v>
-      </c>
-      <c r="E80" t="s">
-        <v>250</v>
       </c>
       <c r="F80" t="s">
         <v>250</v>
       </c>
       <c r="G80" t="s">
+        <v>250</v>
+      </c>
+      <c r="H80" t="s">
         <v>251</v>
       </c>
-      <c r="H80" t="s">
+      <c r="I80" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:9">
       <c r="A81" t="s">
         <v>255</v>
       </c>
@@ -3631,22 +3876,25 @@
         <v>14444</v>
       </c>
       <c r="D81">
+        <v>14444</v>
+      </c>
+      <c r="E81">
         <v>30</v>
       </c>
-      <c r="E81" t="s">
+      <c r="F81" t="s">
         <v>256</v>
       </c>
-      <c r="F81" t="s">
+      <c r="G81" t="s">
         <v>257</v>
       </c>
-      <c r="G81" t="s">
+      <c r="H81" t="s">
         <v>21</v>
       </c>
-      <c r="H81" t="s">
+      <c r="I81" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:9">
       <c r="A82" t="s">
         <v>259</v>
       </c>
@@ -3657,22 +3905,25 @@
         <v>5777</v>
       </c>
       <c r="D82">
+        <v>5777</v>
+      </c>
+      <c r="E82">
         <v>100</v>
       </c>
-      <c r="E82" t="s">
+      <c r="F82" t="s">
         <v>259</v>
       </c>
-      <c r="F82" t="s">
+      <c r="G82" t="s">
         <v>260</v>
       </c>
-      <c r="G82" t="s">
+      <c r="H82" t="s">
         <v>261</v>
       </c>
-      <c r="H82" t="s">
+      <c r="I82" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:9">
       <c r="A83" t="s">
         <v>263</v>
       </c>
@@ -3683,22 +3934,25 @@
         <v>5400</v>
       </c>
       <c r="D83">
+        <v>4888</v>
+      </c>
+      <c r="E83">
         <v>100</v>
       </c>
-      <c r="E83" t="s">
+      <c r="F83" t="s">
         <v>263</v>
       </c>
-      <c r="F83" t="s">
+      <c r="G83" t="s">
         <v>260</v>
       </c>
-      <c r="G83" t="s">
+      <c r="H83" t="s">
         <v>261</v>
       </c>
-      <c r="H83" t="s">
+      <c r="I83" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:9">
       <c r="A84" t="s">
         <v>265</v>
       </c>
@@ -3709,22 +3963,25 @@
         <v>31111</v>
       </c>
       <c r="D84">
+        <v>36000</v>
+      </c>
+      <c r="E84">
         <v>10</v>
       </c>
-      <c r="E84" t="s">
+      <c r="F84" t="s">
         <v>190</v>
       </c>
-      <c r="F84" t="s">
+      <c r="G84" t="s">
         <v>191</v>
       </c>
-      <c r="G84" t="s">
+      <c r="H84" t="s">
         <v>192</v>
       </c>
-      <c r="H84" t="s">
+      <c r="I84" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:9">
       <c r="A85" t="s">
         <v>267</v>
       </c>
@@ -3735,22 +3992,25 @@
         <v>1433</v>
       </c>
       <c r="D85">
+        <v>1160</v>
+      </c>
+      <c r="E85">
         <v>888</v>
       </c>
-      <c r="E85" t="s">
+      <c r="F85" t="s">
         <v>19</v>
       </c>
-      <c r="F85" t="s">
+      <c r="G85" t="s">
         <v>20</v>
       </c>
-      <c r="G85" t="s">
+      <c r="H85" t="s">
         <v>21</v>
       </c>
-      <c r="H85" t="s">
+      <c r="I85" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:9">
       <c r="A86" t="s">
         <v>269</v>
       </c>
@@ -3761,22 +4021,25 @@
         <v>1399</v>
       </c>
       <c r="D86">
+        <v>1100</v>
+      </c>
+      <c r="E86">
         <v>888</v>
       </c>
-      <c r="E86" t="s">
+      <c r="F86" t="s">
         <v>19</v>
       </c>
-      <c r="F86" t="s">
+      <c r="G86" t="s">
         <v>20</v>
       </c>
-      <c r="G86" t="s">
+      <c r="H86" t="s">
         <v>21</v>
       </c>
-      <c r="H86" t="s">
+      <c r="I86" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:9">
       <c r="A87" t="s">
         <v>271</v>
       </c>
@@ -3787,22 +4050,25 @@
         <v>2499</v>
       </c>
       <c r="D87">
+        <v>2222</v>
+      </c>
+      <c r="E87">
         <v>888</v>
       </c>
-      <c r="E87" t="s">
+      <c r="F87" t="s">
         <v>245</v>
       </c>
-      <c r="F87" t="s">
+      <c r="G87" t="s">
         <v>246</v>
       </c>
-      <c r="G87" t="s">
+      <c r="H87" t="s">
         <v>247</v>
       </c>
-      <c r="H87" t="s">
+      <c r="I87" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:9">
       <c r="A88" t="s">
         <v>273</v>
       </c>
@@ -3813,22 +4079,25 @@
         <v>8000</v>
       </c>
       <c r="D88">
+        <v>8500</v>
+      </c>
+      <c r="E88">
         <v>38</v>
       </c>
-      <c r="E88" t="s">
+      <c r="F88" t="s">
         <v>273</v>
       </c>
-      <c r="F88" t="s">
+      <c r="G88" t="s">
         <v>156</v>
       </c>
-      <c r="G88" t="s">
+      <c r="H88" t="s">
         <v>157</v>
       </c>
-      <c r="H88" t="s">
+      <c r="I88" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:9">
       <c r="A89" t="s">
         <v>275</v>
       </c>
@@ -3839,22 +4108,25 @@
         <v>5900</v>
       </c>
       <c r="D89">
+        <v>5488</v>
+      </c>
+      <c r="E89">
         <v>100</v>
       </c>
-      <c r="E89" t="s">
+      <c r="F89" t="s">
         <v>275</v>
       </c>
-      <c r="F89" t="s">
+      <c r="G89" t="s">
         <v>276</v>
       </c>
-      <c r="G89" t="s">
+      <c r="H89" t="s">
         <v>132</v>
       </c>
-      <c r="H89" t="s">
+      <c r="I89" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:9">
       <c r="A90" t="s">
         <v>278</v>
       </c>
@@ -3865,22 +4137,25 @@
         <v>4150</v>
       </c>
       <c r="D90">
+        <v>3999</v>
+      </c>
+      <c r="E90">
         <v>100</v>
       </c>
-      <c r="E90" t="s">
+      <c r="F90" t="s">
         <v>278</v>
       </c>
-      <c r="F90" t="s">
+      <c r="G90" t="s">
         <v>276</v>
       </c>
-      <c r="G90" t="s">
+      <c r="H90" t="s">
         <v>132</v>
       </c>
-      <c r="H90" t="s">
+      <c r="I90" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:9">
       <c r="A91" t="s">
         <v>280</v>
       </c>
@@ -3891,22 +4166,25 @@
         <v>4888</v>
       </c>
       <c r="D91">
+        <v>4888</v>
+      </c>
+      <c r="E91">
         <v>100</v>
       </c>
-      <c r="E91" t="s">
+      <c r="F91" t="s">
         <v>281</v>
       </c>
-      <c r="F91" t="s">
+      <c r="G91" t="s">
         <v>282</v>
       </c>
-      <c r="G91" t="s">
+      <c r="H91" t="s">
         <v>132</v>
       </c>
-      <c r="H91" t="s">
+      <c r="I91" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:9">
       <c r="A92" t="s">
         <v>284</v>
       </c>
@@ -3917,22 +4195,25 @@
         <v>5100</v>
       </c>
       <c r="D92">
+        <v>4950</v>
+      </c>
+      <c r="E92">
         <v>100</v>
       </c>
-      <c r="E92" t="s">
+      <c r="F92" t="s">
         <v>281</v>
       </c>
-      <c r="F92" t="s">
+      <c r="G92" t="s">
         <v>282</v>
       </c>
-      <c r="G92" t="s">
+      <c r="H92" t="s">
         <v>132</v>
       </c>
-      <c r="H92" t="s">
+      <c r="I92" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:9">
       <c r="A93" t="s">
         <v>286</v>
       </c>
@@ -3943,22 +4224,25 @@
         <v>91</v>
       </c>
       <c r="D93">
+        <v>89.88</v>
+      </c>
+      <c r="E93">
         <v>10000</v>
       </c>
-      <c r="E93" t="s">
+      <c r="F93" t="s">
         <v>287</v>
       </c>
-      <c r="F93" t="s">
+      <c r="G93" t="s">
         <v>288</v>
       </c>
-      <c r="G93" t="s">
+      <c r="H93" t="s">
         <v>289</v>
       </c>
-      <c r="H93" t="s">
+      <c r="I93" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:9">
       <c r="A94" t="s">
         <v>291</v>
       </c>
@@ -3969,22 +4253,25 @@
         <v>88.88</v>
       </c>
       <c r="D94">
+        <v>77</v>
+      </c>
+      <c r="E94">
         <v>10000</v>
       </c>
-      <c r="E94" t="s">
+      <c r="F94" t="s">
         <v>287</v>
       </c>
-      <c r="F94" t="s">
+      <c r="G94" t="s">
         <v>292</v>
       </c>
-      <c r="G94" t="s">
+      <c r="H94" t="s">
         <v>289</v>
       </c>
-      <c r="H94" t="s">
+      <c r="I94" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:9">
       <c r="A95" t="s">
         <v>294</v>
       </c>
@@ -3995,22 +4282,25 @@
         <v>39999</v>
       </c>
       <c r="D95">
+        <v>39999</v>
+      </c>
+      <c r="E95">
         <v>10</v>
       </c>
-      <c r="E95" t="s">
+      <c r="F95" t="s">
         <v>190</v>
       </c>
-      <c r="F95" t="s">
+      <c r="G95" t="s">
         <v>191</v>
       </c>
-      <c r="G95" t="s">
+      <c r="H95" t="s">
         <v>192</v>
       </c>
-      <c r="H95" t="s">
+      <c r="I95" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:9">
       <c r="A96" t="s">
         <v>296</v>
       </c>
@@ -4021,22 +4311,25 @@
         <v>1680</v>
       </c>
       <c r="D96">
+        <v>1420</v>
+      </c>
+      <c r="E96">
         <v>1888</v>
       </c>
-      <c r="E96" t="s">
+      <c r="F96" t="s">
         <v>297</v>
       </c>
-      <c r="F96" t="s">
+      <c r="G96" t="s">
         <v>298</v>
       </c>
-      <c r="G96" t="s">
+      <c r="H96" t="s">
         <v>299</v>
       </c>
-      <c r="H96" t="s">
+      <c r="I96" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:9">
       <c r="A97" t="s">
         <v>301</v>
       </c>
@@ -4047,22 +4340,25 @@
         <v>4099</v>
       </c>
       <c r="D97">
+        <v>3999</v>
+      </c>
+      <c r="E97">
         <v>100</v>
       </c>
-      <c r="E97" t="s">
+      <c r="F97" t="s">
         <v>301</v>
       </c>
-      <c r="F97" t="s">
+      <c r="G97" t="s">
         <v>302</v>
       </c>
-      <c r="G97" t="s">
+      <c r="H97" t="s">
         <v>56</v>
       </c>
-      <c r="H97" t="s">
+      <c r="I97" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:9">
       <c r="A98" t="s">
         <v>304</v>
       </c>
@@ -4073,22 +4369,25 @@
         <v>4500</v>
       </c>
       <c r="D98">
+        <v>4098</v>
+      </c>
+      <c r="E98">
         <v>100</v>
       </c>
-      <c r="E98" t="s">
+      <c r="F98" t="s">
         <v>304</v>
       </c>
-      <c r="F98" t="s">
+      <c r="G98" t="s">
         <v>302</v>
       </c>
-      <c r="G98" t="s">
+      <c r="H98" t="s">
         <v>56</v>
       </c>
-      <c r="H98" t="s">
+      <c r="I98" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:9">
       <c r="A99" t="s">
         <v>306</v>
       </c>
@@ -4099,22 +4398,25 @@
         <v>3899</v>
       </c>
       <c r="D99">
+        <v>3787.99</v>
+      </c>
+      <c r="E99">
         <v>100</v>
       </c>
-      <c r="E99" t="s">
+      <c r="F99" t="s">
         <v>306</v>
       </c>
-      <c r="F99" t="s">
+      <c r="G99" t="s">
         <v>302</v>
       </c>
-      <c r="G99" t="s">
+      <c r="H99" t="s">
         <v>304</v>
       </c>
-      <c r="H99" t="s">
+      <c r="I99" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:9">
       <c r="A100" t="s">
         <v>308</v>
       </c>
@@ -4125,22 +4427,25 @@
         <v>13888</v>
       </c>
       <c r="D100">
+        <v>11111</v>
+      </c>
+      <c r="E100">
         <v>30</v>
       </c>
-      <c r="E100" t="s">
+      <c r="F100" t="s">
         <v>308</v>
       </c>
-      <c r="F100" t="s">
+      <c r="G100" t="s">
         <v>250</v>
       </c>
-      <c r="G100" t="s">
+      <c r="H100" t="s">
         <v>251</v>
       </c>
-      <c r="H100" t="s">
+      <c r="I100" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:9">
       <c r="A101" t="s">
         <v>310</v>
       </c>
@@ -4151,22 +4456,25 @@
         <v>13888</v>
       </c>
       <c r="D101">
+        <v>11111</v>
+      </c>
+      <c r="E101">
         <v>30</v>
       </c>
-      <c r="E101" t="s">
+      <c r="F101" t="s">
         <v>310</v>
       </c>
-      <c r="F101" t="s">
+      <c r="G101" t="s">
         <v>250</v>
       </c>
-      <c r="G101" t="s">
+      <c r="H101" t="s">
         <v>251</v>
       </c>
-      <c r="H101" t="s">
+      <c r="I101" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:9">
       <c r="A102" t="s">
         <v>312</v>
       </c>
@@ -4177,22 +4485,25 @@
         <v>4500</v>
       </c>
       <c r="D102">
+        <v>4221.99</v>
+      </c>
+      <c r="E102">
         <v>100</v>
       </c>
-      <c r="E102" t="s">
+      <c r="F102" t="s">
         <v>312</v>
       </c>
-      <c r="F102" t="s">
+      <c r="G102" t="s">
         <v>313</v>
       </c>
-      <c r="G102" t="s">
+      <c r="H102" t="s">
         <v>314</v>
       </c>
-      <c r="H102" t="s">
+      <c r="I102" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:9">
       <c r="A103" t="s">
         <v>316</v>
       </c>
@@ -4203,22 +4514,25 @@
         <v>4888</v>
       </c>
       <c r="D103">
+        <v>3999</v>
+      </c>
+      <c r="E103">
         <v>100</v>
       </c>
-      <c r="E103" t="s">
+      <c r="F103" t="s">
         <v>316</v>
       </c>
-      <c r="F103" t="s">
+      <c r="G103" t="s">
         <v>313</v>
       </c>
-      <c r="G103" t="s">
+      <c r="H103" t="s">
         <v>314</v>
       </c>
-      <c r="H103" t="s">
+      <c r="I103" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:9">
       <c r="A104" t="s">
         <v>318</v>
       </c>
@@ -4229,22 +4543,25 @@
         <v>1599</v>
       </c>
       <c r="D104">
+        <v>1350</v>
+      </c>
+      <c r="E104">
         <v>888</v>
       </c>
-      <c r="E104" t="s">
+      <c r="F104" t="s">
         <v>245</v>
       </c>
-      <c r="F104" t="s">
+      <c r="G104" t="s">
         <v>246</v>
       </c>
-      <c r="G104" t="s">
+      <c r="H104" t="s">
         <v>247</v>
       </c>
-      <c r="H104" t="s">
+      <c r="I104" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:9">
       <c r="A105" t="s">
         <v>320</v>
       </c>
@@ -4255,22 +4572,25 @@
         <v>160</v>
       </c>
       <c r="D105">
+        <v>144</v>
+      </c>
+      <c r="E105">
         <v>10000</v>
       </c>
-      <c r="E105" t="s">
+      <c r="F105" t="s">
         <v>287</v>
       </c>
-      <c r="F105" t="s">
+      <c r="G105" t="s">
         <v>321</v>
       </c>
-      <c r="G105" t="s">
+      <c r="H105" t="s">
         <v>289</v>
       </c>
-      <c r="H105" t="s">
+      <c r="I105" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:9">
       <c r="A106" t="s">
         <v>323</v>
       </c>
@@ -4281,22 +4601,25 @@
         <v>87.66</v>
       </c>
       <c r="D106">
+        <v>70</v>
+      </c>
+      <c r="E106">
         <v>10000</v>
       </c>
-      <c r="E106" t="s">
+      <c r="F106" t="s">
         <v>287</v>
       </c>
-      <c r="F106" t="s">
+      <c r="G106" t="s">
         <v>324</v>
       </c>
-      <c r="G106" t="s">
+      <c r="H106" t="s">
         <v>289</v>
       </c>
-      <c r="H106" t="s">
+      <c r="I106" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:9">
       <c r="A107" t="s">
         <v>326</v>
       </c>
@@ -4307,22 +4630,25 @@
         <v>88.88</v>
       </c>
       <c r="D107">
+        <v>77.8</v>
+      </c>
+      <c r="E107">
         <v>10000</v>
       </c>
-      <c r="E107" t="s">
+      <c r="F107" t="s">
         <v>287</v>
       </c>
-      <c r="F107" t="s">
+      <c r="G107" t="s">
         <v>327</v>
       </c>
-      <c r="G107" t="s">
+      <c r="H107" t="s">
         <v>289</v>
       </c>
-      <c r="H107" t="s">
+      <c r="I107" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:9">
       <c r="A108" t="s">
         <v>329</v>
       </c>
@@ -4333,22 +4659,25 @@
         <v>1911.11</v>
       </c>
       <c r="D108">
+        <v>1777</v>
+      </c>
+      <c r="E108">
         <v>1000</v>
       </c>
-      <c r="E108" t="s">
+      <c r="F108" t="s">
         <v>330</v>
       </c>
-      <c r="F108" t="s">
+      <c r="G108" t="s">
         <v>298</v>
       </c>
-      <c r="G108" t="s">
+      <c r="H108" t="s">
         <v>299</v>
       </c>
-      <c r="H108" t="s">
+      <c r="I108" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:9">
       <c r="A109" t="s">
         <v>332</v>
       </c>
@@ -4359,22 +4688,25 @@
         <v>1650</v>
       </c>
       <c r="D109">
+        <v>1444</v>
+      </c>
+      <c r="E109">
         <v>888</v>
       </c>
-      <c r="E109" t="s">
+      <c r="F109" t="s">
         <v>19</v>
       </c>
-      <c r="F109" t="s">
+      <c r="G109" t="s">
         <v>20</v>
       </c>
-      <c r="G109" t="s">
+      <c r="H109" t="s">
         <v>21</v>
       </c>
-      <c r="H109" t="s">
+      <c r="I109" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:9">
       <c r="A110" t="s">
         <v>334</v>
       </c>
@@ -4385,22 +4717,25 @@
         <v>17000</v>
       </c>
       <c r="D110">
+        <v>14999</v>
+      </c>
+      <c r="E110">
         <v>30</v>
       </c>
-      <c r="E110" t="s">
+      <c r="F110" t="s">
         <v>334</v>
       </c>
-      <c r="F110" t="s">
+      <c r="G110" t="s">
         <v>250</v>
       </c>
-      <c r="G110" t="s">
+      <c r="H110" t="s">
         <v>251</v>
       </c>
-      <c r="H110" t="s">
+      <c r="I110" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:9">
       <c r="A111" t="s">
         <v>336</v>
       </c>
@@ -4411,22 +4746,25 @@
         <v>8500</v>
       </c>
       <c r="D111">
+        <v>8500</v>
+      </c>
+      <c r="E111">
         <v>50</v>
       </c>
-      <c r="E111" t="s">
+      <c r="F111" t="s">
         <v>337</v>
       </c>
-      <c r="F111" t="s">
+      <c r="G111" t="s">
         <v>110</v>
       </c>
-      <c r="G111" t="s">
+      <c r="H111" t="s">
         <v>338</v>
       </c>
-      <c r="H111" t="s">
+      <c r="I111" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:9">
       <c r="A112" t="s">
         <v>340</v>
       </c>
@@ -4437,22 +4775,25 @@
         <v>6888</v>
       </c>
       <c r="D112">
+        <v>5599</v>
+      </c>
+      <c r="E112">
         <v>77</v>
       </c>
-      <c r="E112" t="s">
+      <c r="F112" t="s">
         <v>340</v>
       </c>
-      <c r="F112" t="s">
+      <c r="G112" t="s">
         <v>341</v>
       </c>
-      <c r="G112" t="s">
+      <c r="H112" t="s">
         <v>342</v>
       </c>
-      <c r="H112" t="s">
+      <c r="I112" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:9">
       <c r="A113" t="s">
         <v>344</v>
       </c>
@@ -4463,22 +4804,25 @@
         <v>6883</v>
       </c>
       <c r="D113">
+        <v>7666</v>
+      </c>
+      <c r="E113">
         <v>77</v>
       </c>
-      <c r="E113" t="s">
+      <c r="F113" t="s">
         <v>344</v>
       </c>
-      <c r="F113" t="s">
+      <c r="G113" t="s">
         <v>341</v>
       </c>
-      <c r="G113" t="s">
+      <c r="H113" t="s">
         <v>342</v>
       </c>
-      <c r="H113" t="s">
+      <c r="I113" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:9">
       <c r="A114" t="s">
         <v>346</v>
       </c>
@@ -4489,22 +4833,25 @@
         <v>5000</v>
       </c>
       <c r="D114">
+        <v>4999</v>
+      </c>
+      <c r="E114">
         <v>99</v>
       </c>
-      <c r="E114" t="s">
+      <c r="F114" t="s">
         <v>346</v>
       </c>
-      <c r="F114" t="s">
+      <c r="G114" t="s">
         <v>347</v>
       </c>
-      <c r="G114" t="s">
+      <c r="H114" t="s">
         <v>348</v>
       </c>
-      <c r="H114" t="s">
+      <c r="I114" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:9">
       <c r="A115" t="s">
         <v>350</v>
       </c>
@@ -4515,22 +4862,25 @@
         <v>1699</v>
       </c>
       <c r="D115">
+        <v>1480</v>
+      </c>
+      <c r="E115">
         <v>1000</v>
       </c>
-      <c r="E115" t="s">
+      <c r="F115" t="s">
         <v>351</v>
       </c>
-      <c r="F115" t="s">
+      <c r="G115" t="s">
         <v>352</v>
       </c>
-      <c r="G115" t="s">
+      <c r="H115" t="s">
         <v>353</v>
       </c>
-      <c r="H115" t="s">
+      <c r="I115" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:9">
       <c r="A116" t="s">
         <v>355</v>
       </c>
@@ -4541,22 +4891,25 @@
         <v>1560</v>
       </c>
       <c r="D116">
+        <v>1328</v>
+      </c>
+      <c r="E116">
         <v>888</v>
       </c>
-      <c r="E116" t="s">
+      <c r="F116" t="s">
         <v>245</v>
       </c>
-      <c r="F116" t="s">
+      <c r="G116" t="s">
         <v>246</v>
       </c>
-      <c r="G116" t="s">
+      <c r="H116" t="s">
         <v>247</v>
       </c>
-      <c r="H116" t="s">
+      <c r="I116" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:9">
       <c r="A117" t="s">
         <v>357</v>
       </c>
@@ -4567,22 +4920,25 @@
         <v>1580</v>
       </c>
       <c r="D117">
+        <v>1388</v>
+      </c>
+      <c r="E117">
         <v>888</v>
       </c>
-      <c r="E117" t="s">
+      <c r="F117" t="s">
         <v>245</v>
       </c>
-      <c r="F117" t="s">
+      <c r="G117" t="s">
         <v>246</v>
       </c>
-      <c r="G117" t="s">
+      <c r="H117" t="s">
         <v>247</v>
       </c>
-      <c r="H117" t="s">
+      <c r="I117" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:9">
       <c r="A118" t="s">
         <v>359</v>
       </c>
@@ -4593,22 +4949,25 @@
         <v>1720</v>
       </c>
       <c r="D118">
+        <v>1557</v>
+      </c>
+      <c r="E118">
         <v>1000</v>
       </c>
-      <c r="E118" t="s">
+      <c r="F118" t="s">
         <v>351</v>
       </c>
-      <c r="F118" t="s">
+      <c r="G118" t="s">
         <v>298</v>
       </c>
-      <c r="G118" t="s">
+      <c r="H118" t="s">
         <v>353</v>
       </c>
-      <c r="H118" t="s">
+      <c r="I118" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:9">
       <c r="A119" t="s">
         <v>361</v>
       </c>
@@ -4619,22 +4978,25 @@
         <v>1388</v>
       </c>
       <c r="D119">
+        <v>1188</v>
+      </c>
+      <c r="E119">
         <v>888</v>
       </c>
-      <c r="E119" t="s">
+      <c r="F119" t="s">
         <v>19</v>
       </c>
-      <c r="F119" t="s">
+      <c r="G119" t="s">
         <v>20</v>
       </c>
-      <c r="G119" t="s">
+      <c r="H119" t="s">
         <v>21</v>
       </c>
-      <c r="H119" t="s">
+      <c r="I119" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:9">
       <c r="A120" t="s">
         <v>363</v>
       </c>
@@ -4645,22 +5007,25 @@
         <v>23999</v>
       </c>
       <c r="D120">
+        <v>23999</v>
+      </c>
+      <c r="E120">
         <v>30</v>
       </c>
-      <c r="E120" t="s">
+      <c r="F120" t="s">
         <v>363</v>
       </c>
-      <c r="F120" t="s">
+      <c r="G120" t="s">
         <v>364</v>
       </c>
-      <c r="G120" t="s">
+      <c r="H120" t="s">
         <v>365</v>
       </c>
-      <c r="H120" t="s">
+      <c r="I120" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:9">
       <c r="A121" t="s">
         <v>367</v>
       </c>
@@ -4671,22 +5036,25 @@
         <v>8000</v>
       </c>
       <c r="D121">
+        <v>8666</v>
+      </c>
+      <c r="E121">
         <v>100</v>
       </c>
-      <c r="E121" t="s">
+      <c r="F121" t="s">
         <v>368</v>
       </c>
-      <c r="F121" t="s">
+      <c r="G121" t="s">
         <v>240</v>
       </c>
-      <c r="G121" t="s">
+      <c r="H121" t="s">
         <v>56</v>
       </c>
-      <c r="H121" t="s">
+      <c r="I121" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:9">
       <c r="A122" t="s">
         <v>370</v>
       </c>
@@ -4697,18 +5065,21 @@
         <v>9500</v>
       </c>
       <c r="D122">
+        <v>9500</v>
+      </c>
+      <c r="E122">
         <v>100</v>
       </c>
-      <c r="E122" t="s">
+      <c r="F122" t="s">
         <v>370</v>
       </c>
-      <c r="F122" t="s">
+      <c r="G122" t="s">
         <v>240</v>
       </c>
-      <c r="G122" t="s">
+      <c r="H122" t="s">
         <v>56</v>
       </c>
-      <c r="H122" t="s">
+      <c r="I122" t="s">
         <v>371</v>
       </c>
     </row>
@@ -4716,7 +5087,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="C2:H122 A1:A122 D1:H1" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:A122 E1:I122 C2:C122" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/xlsx/ibox实时价格.xlsx
+++ b/xlsx/ibox实时价格.xlsx
@@ -1,30 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yz/myfile/test/ibox/xlsx/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F7CD45D-FEB8-9C49-8622-AD44367BBA6A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="19170" windowHeight="7110" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="价格" sheetId="1" r:id="rId1"/>
+    <sheet name="已赋能" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="376">
   <si>
     <t>藏品名字</t>
   </si>
   <si>
+    <t>4.1最低价格</t>
+  </si>
+  <si>
+    <t>4.2最低价格</t>
+  </si>
+  <si>
+    <t>4.2晚最低价格</t>
+  </si>
+  <si>
     <t>总发行量</t>
   </si>
   <si>
@@ -1138,47 +1142,387 @@
     <t>https://www.ibox.art/zh-cn/item/?id=100000106</t>
   </si>
   <si>
-    <t>4.1最低价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.2最低价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.2晚最低价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>《时空旅行者-1》</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1186,24 +1530,313 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1525,24 +2158,24 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="1" max="1" width="19.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="13.6666666666667" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1550,33 +2183,33 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>372</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>373</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>374</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>7877</v>
@@ -1591,21 +2224,21 @@
         <v>200</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>7999</v>
@@ -1620,21 +2253,21 @@
         <v>200</v>
       </c>
       <c r="F3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>725</v>
@@ -1643,27 +2276,27 @@
         <v>645</v>
       </c>
       <c r="D4">
-        <v>577.92999999999995</v>
+        <v>577.93</v>
       </c>
       <c r="E4">
         <v>2000</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B5">
         <v>8200</v>
@@ -1678,21 +2311,21 @@
         <v>200</v>
       </c>
       <c r="F5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B6">
         <v>1667</v>
@@ -1707,21 +2340,21 @@
         <v>888</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B7">
         <v>1666</v>
@@ -1736,21 +2369,21 @@
         <v>888</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B8">
         <v>5588</v>
@@ -1765,21 +2398,21 @@
         <v>500</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B9">
         <v>669</v>
@@ -1794,21 +2427,21 @@
         <v>3000</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B10">
         <v>1398</v>
@@ -1823,21 +2456,21 @@
         <v>1000</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I10" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B11">
         <v>2780</v>
@@ -1852,21 +2485,21 @@
         <v>500</v>
       </c>
       <c r="F11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" t="s">
         <v>36</v>
       </c>
-      <c r="G11" t="s">
-        <v>33</v>
-      </c>
       <c r="H11" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I11" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B12">
         <v>446</v>
@@ -1881,21 +2514,21 @@
         <v>5355</v>
       </c>
       <c r="F12" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G12" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H12" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I12" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B13">
         <v>7500</v>
@@ -1910,21 +2543,21 @@
         <v>100</v>
       </c>
       <c r="F13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" t="s">
         <v>44</v>
       </c>
-      <c r="G13" t="s">
-        <v>40</v>
-      </c>
-      <c r="H13" t="s">
-        <v>41</v>
-      </c>
       <c r="I13" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B14">
         <v>4888</v>
@@ -1939,21 +2572,21 @@
         <v>300</v>
       </c>
       <c r="F14" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G14" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H14" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I14" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B15">
         <v>4799</v>
@@ -1968,21 +2601,21 @@
         <v>300</v>
       </c>
       <c r="F15" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" t="s">
+        <v>51</v>
+      </c>
+      <c r="H15" t="s">
         <v>52</v>
       </c>
-      <c r="G15" t="s">
-        <v>48</v>
-      </c>
-      <c r="H15" t="s">
-        <v>49</v>
-      </c>
       <c r="I15" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B16">
         <v>6580</v>
@@ -1997,21 +2630,21 @@
         <v>100</v>
       </c>
       <c r="F16" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G16" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H16" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I16" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B17">
         <v>5666</v>
@@ -2026,21 +2659,21 @@
         <v>100</v>
       </c>
       <c r="F17" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" t="s">
         <v>58</v>
       </c>
-      <c r="G17" t="s">
-        <v>55</v>
-      </c>
       <c r="H17" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I17" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B18">
         <v>17288</v>
@@ -2055,21 +2688,21 @@
         <v>333</v>
       </c>
       <c r="F18" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G18" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H18" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I18" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B19">
         <v>16888</v>
@@ -2084,21 +2717,21 @@
         <v>333</v>
       </c>
       <c r="F19" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G19" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H19" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I19" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B20">
         <v>18620</v>
@@ -2113,21 +2746,21 @@
         <v>333</v>
       </c>
       <c r="F20" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G20" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H20" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I20" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B21">
         <v>677</v>
@@ -2142,21 +2775,21 @@
         <v>3000</v>
       </c>
       <c r="F21" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G21" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H21" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I21" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B22">
         <v>679</v>
@@ -2171,21 +2804,21 @@
         <v>3000</v>
       </c>
       <c r="F22" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G22" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H22" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I22" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B23">
         <v>728</v>
@@ -2200,21 +2833,21 @@
         <v>3000</v>
       </c>
       <c r="F23" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G23" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H23" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I23" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B24">
         <v>788</v>
@@ -2229,21 +2862,21 @@
         <v>3000</v>
       </c>
       <c r="F24" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G24" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H24" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I24" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B25">
         <v>670</v>
@@ -2258,21 +2891,21 @@
         <v>3000</v>
       </c>
       <c r="F25" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G25" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H25" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I25" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B26">
         <v>699</v>
@@ -2287,21 +2920,21 @@
         <v>3000</v>
       </c>
       <c r="F26" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G26" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H26" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I26" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B27">
         <v>799</v>
@@ -2316,21 +2949,21 @@
         <v>3000</v>
       </c>
       <c r="F27" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G27" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H27" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I27" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B28">
         <v>1088</v>
@@ -2345,21 +2978,21 @@
         <v>3000</v>
       </c>
       <c r="F28" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G28" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H28" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I28" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B29">
         <v>948</v>
@@ -2374,21 +3007,21 @@
         <v>3000</v>
       </c>
       <c r="F29" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G29" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H29" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I29" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B30">
         <v>1399</v>
@@ -2403,21 +3036,21 @@
         <v>3000</v>
       </c>
       <c r="F30" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G30" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H30" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I30" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B31">
         <v>895</v>
@@ -2432,21 +3065,21 @@
         <v>3000</v>
       </c>
       <c r="F31" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G31" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H31" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I31" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B32">
         <v>699</v>
@@ -2461,21 +3094,21 @@
         <v>3000</v>
       </c>
       <c r="F32" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G32" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H32" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I32" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B33">
         <v>5268</v>
@@ -2490,21 +3123,21 @@
         <v>100</v>
       </c>
       <c r="F33" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G33" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="H33" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I33" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B34">
         <v>4000</v>
@@ -2519,21 +3152,21 @@
         <v>100</v>
       </c>
       <c r="F34" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G34" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="H34" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I34" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B35">
         <v>5798</v>
@@ -2548,21 +3181,21 @@
         <v>100</v>
       </c>
       <c r="F35" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G35" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H35" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I35" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B36">
         <v>7500</v>
@@ -2577,21 +3210,21 @@
         <v>50</v>
       </c>
       <c r="F36" t="s">
+        <v>112</v>
+      </c>
+      <c r="G36" t="s">
+        <v>113</v>
+      </c>
+      <c r="H36" t="s">
         <v>109</v>
       </c>
-      <c r="G36" t="s">
-        <v>110</v>
-      </c>
-      <c r="H36" t="s">
-        <v>106</v>
-      </c>
       <c r="I36" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B37">
         <v>9999</v>
@@ -2606,21 +3239,21 @@
         <v>33</v>
       </c>
       <c r="F37" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G37" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="H37" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I37" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B38">
         <v>8588</v>
@@ -2635,21 +3268,21 @@
         <v>50</v>
       </c>
       <c r="F38" t="s">
+        <v>112</v>
+      </c>
+      <c r="G38" t="s">
+        <v>113</v>
+      </c>
+      <c r="H38" t="s">
         <v>109</v>
       </c>
-      <c r="G38" t="s">
-        <v>110</v>
-      </c>
-      <c r="H38" t="s">
-        <v>106</v>
-      </c>
       <c r="I38" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B39">
         <v>4366</v>
@@ -2664,21 +3297,21 @@
         <v>100</v>
       </c>
       <c r="F39" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="G39" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="H39" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="I39" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B40">
         <v>6050</v>
@@ -2693,21 +3326,21 @@
         <v>100</v>
       </c>
       <c r="F40" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G40" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H40" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I40" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B41">
         <v>5776</v>
@@ -2722,21 +3355,21 @@
         <v>100</v>
       </c>
       <c r="F41" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="G41" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="H41" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="I41" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B42">
         <v>2849</v>
@@ -2751,21 +3384,21 @@
         <v>199</v>
       </c>
       <c r="F42" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G42" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="H42" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I42" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B43">
         <v>2300</v>
@@ -2780,21 +3413,21 @@
         <v>199</v>
       </c>
       <c r="F43" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="G43" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="H43" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="I43" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B44">
         <v>2778</v>
@@ -2809,21 +3442,21 @@
         <v>199</v>
       </c>
       <c r="F44" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G44" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="H44" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I44" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B45">
         <v>2600</v>
@@ -2838,21 +3471,21 @@
         <v>199</v>
       </c>
       <c r="F45" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G45" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="H45" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="I45" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B46">
         <v>2566</v>
@@ -2867,21 +3500,21 @@
         <v>199</v>
       </c>
       <c r="F46" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G46" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H46" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="I46" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B47">
         <v>2350</v>
@@ -2896,21 +3529,21 @@
         <v>199</v>
       </c>
       <c r="F47" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="G47" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="H47" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="I47" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B48">
         <v>2600</v>
@@ -2925,21 +3558,21 @@
         <v>199</v>
       </c>
       <c r="F48" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G48" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H48" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I48" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B49">
         <v>2600</v>
@@ -2954,21 +3587,21 @@
         <v>199</v>
       </c>
       <c r="F49" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G49" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H49" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I49" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B50">
         <v>2578</v>
@@ -2983,21 +3616,21 @@
         <v>199</v>
       </c>
       <c r="F50" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="G50" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="H50" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="I50" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B51">
         <v>2887</v>
@@ -3012,21 +3645,21 @@
         <v>199</v>
       </c>
       <c r="F51" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="G51" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="H51" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="I51" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B52">
         <v>2868</v>
@@ -3041,21 +3674,21 @@
         <v>199</v>
       </c>
       <c r="F52" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="G52" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="H52" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I52" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B53">
         <v>2789.1</v>
@@ -3070,21 +3703,21 @@
         <v>199</v>
       </c>
       <c r="F53" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="G53" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="H53" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I53" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B54">
         <v>3800</v>
@@ -3099,21 +3732,21 @@
         <v>200</v>
       </c>
       <c r="F54" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="G54" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="H54" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="I54" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B55">
         <v>3600</v>
@@ -3128,21 +3761,21 @@
         <v>200</v>
       </c>
       <c r="F55" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="G55" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="H55" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I55" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B56">
         <v>4500</v>
@@ -3157,21 +3790,21 @@
         <v>100</v>
       </c>
       <c r="F56" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G56" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="H56" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I56" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B57">
         <v>6188</v>
@@ -3186,21 +3819,21 @@
         <v>100</v>
       </c>
       <c r="F57" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="G57" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H57" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I57" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B58">
         <v>38888</v>
@@ -3215,21 +3848,21 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="G58" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="H58" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="I58" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B59">
         <v>35888</v>
@@ -3244,21 +3877,21 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="G59" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="H59" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="I59" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B60">
         <v>40888</v>
@@ -3273,21 +3906,21 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="G60" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="H60" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="I60" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B61">
         <v>3988</v>
@@ -3302,21 +3935,21 @@
         <v>2000</v>
       </c>
       <c r="F61" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="G61" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="H61" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="I61" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B62">
         <v>3700</v>
@@ -3331,21 +3964,21 @@
         <v>2000</v>
       </c>
       <c r="F62" t="s">
+        <v>205</v>
+      </c>
+      <c r="G62" t="s">
         <v>202</v>
       </c>
-      <c r="G62" t="s">
-        <v>199</v>
-      </c>
       <c r="H62" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="I62" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B63">
         <v>3699</v>
@@ -3360,21 +3993,21 @@
         <v>2000</v>
       </c>
       <c r="F63" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="G63" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="H63" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="I63" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B64">
         <v>3650</v>
@@ -3389,21 +4022,21 @@
         <v>2000</v>
       </c>
       <c r="F64" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="G64" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="H64" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="I64" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B65">
         <v>5500</v>
@@ -3418,21 +4051,21 @@
         <v>100</v>
       </c>
       <c r="F65" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="G65" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="H65" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="I65" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B66">
         <v>5499</v>
@@ -3447,21 +4080,21 @@
         <v>100</v>
       </c>
       <c r="F66" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="G66" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="H66" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="I66" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B67">
         <v>5199</v>
@@ -3476,21 +4109,21 @@
         <v>100</v>
       </c>
       <c r="F67" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="G67" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="H67" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="I67" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B68">
         <v>5399</v>
@@ -3505,21 +4138,21 @@
         <v>100</v>
       </c>
       <c r="F68" t="s">
+        <v>220</v>
+      </c>
+      <c r="G68" t="s">
         <v>217</v>
       </c>
-      <c r="G68" t="s">
-        <v>214</v>
-      </c>
       <c r="H68" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="I68" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B69">
         <v>6543</v>
@@ -3534,21 +4167,21 @@
         <v>100</v>
       </c>
       <c r="F69" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="G69" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="H69" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="I69" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B70">
         <v>5900</v>
@@ -3563,21 +4196,21 @@
         <v>100</v>
       </c>
       <c r="F70" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="G70" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="H70" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="I70" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B71">
         <v>6500</v>
@@ -3592,21 +4225,21 @@
         <v>100</v>
       </c>
       <c r="F71" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="G71" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="H71" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="I71" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B72">
         <v>5800</v>
@@ -3621,21 +4254,21 @@
         <v>100</v>
       </c>
       <c r="F72" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="G72" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="H72" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I72" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B73">
         <v>5999</v>
@@ -3650,21 +4283,21 @@
         <v>100</v>
       </c>
       <c r="F73" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="G73" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="H73" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I73" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B74">
         <v>10888</v>
@@ -3679,21 +4312,21 @@
         <v>35</v>
       </c>
       <c r="F74" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="G74" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="H74" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="I74" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B75">
         <v>4888</v>
@@ -3708,21 +4341,21 @@
         <v>100</v>
       </c>
       <c r="F75" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="G75" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="H75" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="I75" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B76">
         <v>6666</v>
@@ -3737,21 +4370,21 @@
         <v>100</v>
       </c>
       <c r="F76" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="G76" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="H76" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I76" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B77">
         <v>4600</v>
@@ -3766,21 +4399,21 @@
         <v>100</v>
       </c>
       <c r="F77" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="G77" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="H77" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="I77" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B78">
         <v>3199</v>
@@ -3795,21 +4428,21 @@
         <v>888</v>
       </c>
       <c r="F78" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="G78" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="H78" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="I78" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B79">
         <v>5588</v>
@@ -3824,21 +4457,21 @@
         <v>80</v>
       </c>
       <c r="F79" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="G79" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="H79" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I79" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B80">
         <v>5800</v>
@@ -3853,21 +4486,21 @@
         <v>80</v>
       </c>
       <c r="F80" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="G80" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="H80" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I80" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B81">
         <v>14999</v>
@@ -3882,21 +4515,21 @@
         <v>30</v>
       </c>
       <c r="F81" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="G81" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="H81" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I81" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B82">
         <v>5625</v>
@@ -3911,21 +4544,21 @@
         <v>100</v>
       </c>
       <c r="F82" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="G82" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H82" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="I82" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B83">
         <v>5780</v>
@@ -3940,21 +4573,21 @@
         <v>100</v>
       </c>
       <c r="F83" t="s">
+        <v>266</v>
+      </c>
+      <c r="G83" t="s">
         <v>263</v>
       </c>
-      <c r="G83" t="s">
-        <v>260</v>
-      </c>
       <c r="H83" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="I83" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B84">
         <v>36665</v>
@@ -3969,21 +4602,21 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="G84" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="H84" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="I84" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B85">
         <v>1610</v>
@@ -3998,21 +4631,21 @@
         <v>888</v>
       </c>
       <c r="F85" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G85" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H85" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I85" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B86">
         <v>1650</v>
@@ -4027,21 +4660,21 @@
         <v>888</v>
       </c>
       <c r="F86" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G86" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H86" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I86" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B87">
         <v>2700</v>
@@ -4056,21 +4689,21 @@
         <v>888</v>
       </c>
       <c r="F87" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="G87" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="H87" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="I87" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B88">
         <v>8999</v>
@@ -4085,21 +4718,21 @@
         <v>38</v>
       </c>
       <c r="F88" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="G88" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="H88" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="I88" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B89">
         <v>6600</v>
@@ -4114,21 +4747,21 @@
         <v>100</v>
       </c>
       <c r="F89" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="G89" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="H89" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="I89" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B90">
         <v>4000</v>
@@ -4143,21 +4776,21 @@
         <v>100</v>
       </c>
       <c r="F90" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="G90" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="H90" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="I90" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B91">
         <v>5488</v>
@@ -4172,21 +4805,21 @@
         <v>100</v>
       </c>
       <c r="F91" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="G91" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="H91" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="I91" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B92">
         <v>5500</v>
@@ -4201,21 +4834,21 @@
         <v>100</v>
       </c>
       <c r="F92" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="G92" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="H92" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="I92" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B93">
         <v>108</v>
@@ -4230,21 +4863,21 @@
         <v>10000</v>
       </c>
       <c r="F93" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="G93" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="H93" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="I93" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B94">
         <v>95.88</v>
@@ -4259,21 +4892,21 @@
         <v>10000</v>
       </c>
       <c r="F94" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="G94" t="s">
+        <v>295</v>
+      </c>
+      <c r="H94" t="s">
         <v>292</v>
       </c>
-      <c r="H94" t="s">
-        <v>289</v>
-      </c>
       <c r="I94" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B95">
         <v>39999</v>
@@ -4288,21 +4921,21 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="G95" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="H95" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="I95" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B96">
         <v>1998</v>
@@ -4317,21 +4950,21 @@
         <v>1888</v>
       </c>
       <c r="F96" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="G96" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="H96" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="I96" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B97">
         <v>4600</v>
@@ -4346,21 +4979,21 @@
         <v>100</v>
       </c>
       <c r="F97" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="G97" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="H97" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I97" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B98">
         <v>4388</v>
@@ -4375,21 +5008,21 @@
         <v>100</v>
       </c>
       <c r="F98" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="G98" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="H98" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I98" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B99">
         <v>4188</v>
@@ -4404,21 +5037,21 @@
         <v>100</v>
       </c>
       <c r="F99" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G99" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="H99" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="I99" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="100" spans="1:9">
       <c r="A100" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B100">
         <v>12000</v>
@@ -4433,21 +5066,21 @@
         <v>30</v>
       </c>
       <c r="F100" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="G100" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="H100" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I100" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="101" spans="1:9">
       <c r="A101" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B101">
         <v>14999</v>
@@ -4462,21 +5095,21 @@
         <v>30</v>
       </c>
       <c r="F101" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="G101" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="H101" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I101" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="102" spans="1:9">
       <c r="A102" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B102">
         <v>5150</v>
@@ -4491,21 +5124,21 @@
         <v>100</v>
       </c>
       <c r="F102" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="G102" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="H102" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="I102" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="103" spans="1:9">
       <c r="A103" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B103">
         <v>5100</v>
@@ -4520,21 +5153,21 @@
         <v>100</v>
       </c>
       <c r="F103" t="s">
+        <v>319</v>
+      </c>
+      <c r="G103" t="s">
         <v>316</v>
       </c>
-      <c r="G103" t="s">
-        <v>313</v>
-      </c>
       <c r="H103" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="I103" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="104" spans="1:9">
       <c r="A104" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B104">
         <v>1798</v>
@@ -4549,21 +5182,21 @@
         <v>888</v>
       </c>
       <c r="F104" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="G104" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="H104" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="I104" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="105" spans="1:9">
       <c r="A105" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B105">
         <v>168</v>
@@ -4578,21 +5211,21 @@
         <v>10000</v>
       </c>
       <c r="F105" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="G105" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="H105" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="I105" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B106">
         <v>96.99</v>
@@ -4607,21 +5240,21 @@
         <v>10000</v>
       </c>
       <c r="F106" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="G106" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="H106" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="I106" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="107" spans="1:9">
       <c r="A107" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B107">
         <v>97.88</v>
@@ -4636,21 +5269,21 @@
         <v>10000</v>
       </c>
       <c r="F107" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="G107" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="H107" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="I107" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="108" spans="1:9">
       <c r="A108" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B108">
         <v>2199</v>
@@ -4665,21 +5298,21 @@
         <v>1000</v>
       </c>
       <c r="F108" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="G108" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="H108" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="I108" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="109" spans="1:9">
       <c r="A109" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B109">
         <v>1988</v>
@@ -4694,21 +5327,21 @@
         <v>888</v>
       </c>
       <c r="F109" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G109" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H109" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I109" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="110" spans="1:9">
       <c r="A110" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B110">
         <v>17900</v>
@@ -4723,21 +5356,21 @@
         <v>30</v>
       </c>
       <c r="F110" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="G110" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="H110" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I110" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="111" spans="1:9">
       <c r="A111" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B111">
         <v>8600</v>
@@ -4752,21 +5385,21 @@
         <v>50</v>
       </c>
       <c r="F111" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="G111" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="H111" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="I111" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
     </row>
     <row r="112" spans="1:9">
       <c r="A112" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B112">
         <v>7199</v>
@@ -4781,21 +5414,21 @@
         <v>77</v>
       </c>
       <c r="F112" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="G112" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="H112" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="I112" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="113" spans="1:9">
       <c r="A113" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B113">
         <v>7850</v>
@@ -4810,21 +5443,21 @@
         <v>77</v>
       </c>
       <c r="F113" t="s">
+        <v>347</v>
+      </c>
+      <c r="G113" t="s">
         <v>344</v>
       </c>
-      <c r="G113" t="s">
-        <v>341</v>
-      </c>
       <c r="H113" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="I113" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="114" spans="1:9">
       <c r="A114" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B114">
         <v>5888</v>
@@ -4839,21 +5472,21 @@
         <v>99</v>
       </c>
       <c r="F114" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="G114" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="H114" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="I114" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="115" spans="1:9">
       <c r="A115" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B115">
         <v>1950</v>
@@ -4868,21 +5501,21 @@
         <v>1000</v>
       </c>
       <c r="F115" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="G115" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="H115" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="I115" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="116" spans="1:9">
       <c r="A116" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B116">
         <v>1900</v>
@@ -4897,21 +5530,21 @@
         <v>888</v>
       </c>
       <c r="F116" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="G116" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="H116" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="I116" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="117" spans="1:9">
       <c r="A117" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B117">
         <v>1900</v>
@@ -4926,21 +5559,21 @@
         <v>888</v>
       </c>
       <c r="F117" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="G117" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="H117" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="I117" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
     </row>
     <row r="118" spans="1:9">
       <c r="A118" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B118">
         <v>2080</v>
@@ -4955,21 +5588,21 @@
         <v>1000</v>
       </c>
       <c r="F118" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="G118" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="H118" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="I118" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
     <row r="119" spans="1:9">
       <c r="A119" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B119">
         <v>1600</v>
@@ -4984,21 +5617,21 @@
         <v>888</v>
       </c>
       <c r="F119" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G119" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H119" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I119" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="120" spans="1:9">
       <c r="A120" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B120">
         <v>28777</v>
@@ -5013,21 +5646,21 @@
         <v>30</v>
       </c>
       <c r="F120" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="G120" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="H120" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="I120" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
     <row r="121" spans="1:9">
       <c r="A121" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B121">
         <v>8666</v>
@@ -5042,21 +5675,21 @@
         <v>100</v>
       </c>
       <c r="F121" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="G121" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="H121" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I121" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="122" spans="1:9">
       <c r="A122" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B122">
         <v>9999</v>
@@ -5071,23 +5704,705 @@
         <v>100</v>
       </c>
       <c r="F122" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="G122" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="H122" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I122" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A1:A122 E1:I122 C2:C122" numberStoredAsText="1"/>
+    <ignoredError sqref="C2:C122 E1:I122 A1:A122" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="5" max="5" width="22.375" customWidth="1"/>
+    <col min="6" max="6" width="9.375"/>
+    <col min="9" max="9" width="17.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B1" s="1">
+        <v>6299</v>
+      </c>
+      <c r="C1" s="1">
+        <v>99</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5999</v>
+      </c>
+      <c r="G1" s="1">
+        <v>100</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J1" s="1">
+        <v>8430</v>
+      </c>
+      <c r="K1" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:11">
+      <c r="A2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="1">
+        <v>7499</v>
+      </c>
+      <c r="C2" s="1">
+        <v>100</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F2" s="1">
+        <v>5999.99</v>
+      </c>
+      <c r="G2" s="1">
+        <v>100</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="J2" s="1">
+        <v>8999</v>
+      </c>
+      <c r="K2" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:11">
+      <c r="A3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="1">
+        <v>7588</v>
+      </c>
+      <c r="C3" s="1">
+        <v>100</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F3" s="1">
+        <v>7390</v>
+      </c>
+      <c r="G3" s="1">
+        <v>100</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="J3" s="1">
+        <v>9999</v>
+      </c>
+      <c r="K3" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:11">
+      <c r="A4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="1">
+        <v>7300</v>
+      </c>
+      <c r="C4" s="1">
+        <v>100</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F4" s="1">
+        <v>5600</v>
+      </c>
+      <c r="G4" s="1">
+        <v>100</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="J4" s="1">
+        <v>6999</v>
+      </c>
+      <c r="K4" s="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:11">
+      <c r="A5" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="1">
+        <v>6088</v>
+      </c>
+      <c r="C5" s="1">
+        <v>100</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="F5" s="1">
+        <v>5555</v>
+      </c>
+      <c r="G5" s="1">
+        <v>100</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="J5" s="1">
+        <v>7699</v>
+      </c>
+      <c r="K5" s="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:11">
+      <c r="A6" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="1">
+        <v>6088</v>
+      </c>
+      <c r="C6" s="1">
+        <v>100</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F6" s="1">
+        <v>5655</v>
+      </c>
+      <c r="G6" s="1">
+        <v>100</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="J6" s="1">
+        <v>5700</v>
+      </c>
+      <c r="K6" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:11">
+      <c r="A7" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" s="1">
+        <v>7199</v>
+      </c>
+      <c r="C7" s="1">
+        <v>100</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="F7" s="1">
+        <v>4800</v>
+      </c>
+      <c r="G7" s="1">
+        <v>100</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="J7" s="1">
+        <v>5600</v>
+      </c>
+      <c r="K7" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:11">
+      <c r="A8" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" s="1">
+        <v>4899</v>
+      </c>
+      <c r="C8" s="1">
+        <v>100</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="F8" s="1">
+        <v>4800</v>
+      </c>
+      <c r="G8" s="1">
+        <v>100</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="J8" s="1">
+        <v>4999</v>
+      </c>
+      <c r="K8" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:11">
+      <c r="A9" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B9" s="1">
+        <v>6999</v>
+      </c>
+      <c r="C9" s="1">
+        <v>100</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="F9" s="1">
+        <v>4700</v>
+      </c>
+      <c r="G9" s="1">
+        <v>100</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="J9" s="1">
+        <v>5168</v>
+      </c>
+      <c r="K9" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:11">
+      <c r="A10" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B10" s="1">
+        <v>6500</v>
+      </c>
+      <c r="C10" s="1">
+        <v>100</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="F10" s="1">
+        <v>5600.66</v>
+      </c>
+      <c r="G10" s="1">
+        <v>100</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" s="1">
+        <v>6000</v>
+      </c>
+      <c r="K10" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:11">
+      <c r="A11" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B11" s="1">
+        <v>5888</v>
+      </c>
+      <c r="C11" s="1">
+        <v>100</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="F11" s="1">
+        <v>5499</v>
+      </c>
+      <c r="G11" s="1">
+        <v>100</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J11" s="1">
+        <v>6000</v>
+      </c>
+      <c r="K11" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:11">
+      <c r="A12" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B12" s="1">
+        <v>6688</v>
+      </c>
+      <c r="C12" s="1">
+        <v>100</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="F12" s="1">
+        <v>10567.89</v>
+      </c>
+      <c r="G12" s="1">
+        <v>100</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J12" s="1">
+        <v>19888</v>
+      </c>
+      <c r="K12" s="1">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:11">
+      <c r="A13" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B13" s="1">
+        <v>5600</v>
+      </c>
+      <c r="C13" s="1">
+        <v>100</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="F13" s="1">
+        <v>12050</v>
+      </c>
+      <c r="G13" s="1">
+        <v>100</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J13" s="1">
+        <v>25789</v>
+      </c>
+      <c r="K13" s="1">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="1:11">
+      <c r="A14" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B14" s="1">
+        <v>5600</v>
+      </c>
+      <c r="C14" s="1">
+        <v>100</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F14" s="1">
+        <v>3999</v>
+      </c>
+      <c r="G14" s="1">
+        <v>199</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J14" s="1">
+        <v>23888</v>
+      </c>
+      <c r="K14" s="1">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:11">
+      <c r="A15" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B15" s="1">
+        <v>6666</v>
+      </c>
+      <c r="C15" s="1">
+        <v>100</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F15" s="1">
+        <v>4186</v>
+      </c>
+      <c r="G15" s="1">
+        <v>199</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" s="1">
+        <v>7155</v>
+      </c>
+      <c r="K15" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="1:11">
+      <c r="A16" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B16" s="1">
+        <v>5985.88</v>
+      </c>
+      <c r="C16" s="1">
+        <v>100</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F16" s="1">
+        <v>3948</v>
+      </c>
+      <c r="G16" s="1">
+        <v>199</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J16" s="1">
+        <v>4439</v>
+      </c>
+      <c r="K16" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="1:7">
+      <c r="A17" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B17" s="1">
+        <v>6355</v>
+      </c>
+      <c r="C17" s="1">
+        <v>100</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F17" s="1">
+        <v>4224.88</v>
+      </c>
+      <c r="G17" s="1">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="1:7">
+      <c r="A18" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B18" s="1">
+        <v>6150</v>
+      </c>
+      <c r="C18" s="1">
+        <v>100</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F18" s="1">
+        <v>4050</v>
+      </c>
+      <c r="G18" s="1">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="1:7">
+      <c r="A19" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B19" s="1">
+        <v>6399</v>
+      </c>
+      <c r="C19" s="1">
+        <v>100</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F19" s="1">
+        <v>4600</v>
+      </c>
+      <c r="G19" s="1">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="1:7">
+      <c r="A20" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B20" s="1">
+        <v>6600</v>
+      </c>
+      <c r="C20" s="1">
+        <v>100</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F20" s="1">
+        <v>6333</v>
+      </c>
+      <c r="G20" s="1">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="1:7">
+      <c r="A21" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B21" s="1">
+        <v>6666</v>
+      </c>
+      <c r="C21" s="1">
+        <v>100</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F21" s="1">
+        <v>4699</v>
+      </c>
+      <c r="G21" s="1">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="1:7">
+      <c r="A22" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B22" s="1">
+        <v>6188</v>
+      </c>
+      <c r="C22" s="1">
+        <v>100</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F22" s="1">
+        <v>4300</v>
+      </c>
+      <c r="G22" s="1">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="1:7">
+      <c r="A23" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B23" s="1">
+        <v>8550</v>
+      </c>
+      <c r="C23" s="1">
+        <v>100</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F23" s="1">
+        <v>4500</v>
+      </c>
+      <c r="G23" s="1">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="1:7">
+      <c r="A24" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B24" s="1">
+        <v>5690</v>
+      </c>
+      <c r="C24" s="1">
+        <v>100</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F24" s="1">
+        <v>4388</v>
+      </c>
+      <c r="G24" s="1">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="5:7">
+      <c r="E25" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F25" s="1">
+        <v>4300</v>
+      </c>
+      <c r="G25" s="1">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1"/>
+    <row r="27" s="1" customFormat="1"/>
+    <row r="28" s="1" customFormat="1"/>
+    <row r="29" s="1" customFormat="1"/>
+    <row r="30" s="1" customFormat="1"/>
+    <row r="31" s="1" customFormat="1"/>
+    <row r="32" s="1" customFormat="1"/>
+    <row r="33" s="1" customFormat="1"/>
+    <row r="34" s="1" customFormat="1"/>
+    <row r="35" s="1" customFormat="1"/>
+    <row r="36" s="1" customFormat="1"/>
+    <row r="37" s="1" customFormat="1"/>
+    <row r="38" s="1" customFormat="1"/>
+    <row r="39" s="1" customFormat="1"/>
+    <row r="40" s="1" customFormat="1"/>
+    <row r="41" s="1" customFormat="1"/>
+    <row r="42" s="1" customFormat="1"/>
+    <row r="43" s="1" customFormat="1"/>
+    <row r="44" s="1" customFormat="1"/>
+    <row r="45" s="1" customFormat="1"/>
+    <row r="46" s="1" customFormat="1"/>
+    <row r="47" s="1" customFormat="1"/>
+    <row r="48" s="1" customFormat="1"/>
+    <row r="49" s="1" customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>